--- a/data/trans_dic/P16B18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,02; 97,1</t>
+          <t>74,51; 97,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,6; 100,0</t>
+          <t>85,0; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,82; 100,0</t>
+          <t>67,43; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,02; 97,1</t>
+          <t>74,51; 97,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,6; 100,0</t>
+          <t>85,0; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,82; 100,0</t>
+          <t>67,43; 100,0</t>
         </is>
       </c>
     </row>
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,34; 97,78</t>
+          <t>81,85; 97,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,38; 100,0</t>
+          <t>81,75; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,34; 97,78</t>
+          <t>81,85; 97,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,38; 100,0</t>
+          <t>81,75; 100,0</t>
         </is>
       </c>
     </row>
@@ -920,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,12; 100,0</t>
+          <t>41,37; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,3; 100,0</t>
+          <t>67,61; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,12; 100,0</t>
+          <t>41,37; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,3; 100,0</t>
+          <t>67,61; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,92; 100,0</t>
+          <t>88,06; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 100,0</t>
+          <t>91,76; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,39; 98,11</t>
+          <t>84,09; 98,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,92; 100,0</t>
+          <t>88,06; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 100,0</t>
+          <t>91,76; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,39; 98,11</t>
+          <t>84,09; 98,12</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,23; 100,0</t>
+          <t>77,52; 97,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,38; 100,0</t>
+          <t>81,13; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,23; 100,0</t>
+          <t>77,52; 97,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,38; 100,0</t>
+          <t>81,13; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>76,71; 97,4</t>
+          <t>75,81; 97,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,34; 100,0</t>
+          <t>90,93; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>76,71; 97,4</t>
+          <t>75,81; 97,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,34; 100,0</t>
+          <t>90,93; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,29; 98,29</t>
+          <t>91,94; 98,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,29; 98,29</t>
+          <t>91,94; 98,24</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos anticonceptivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31393</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31293</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15290</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31393</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31293</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15290</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26367; 34377</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27422; 32262</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11611; 17218</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26367; 34377</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27422; 32262</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11611; 17218</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42025</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22310</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26699</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42025</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22310</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26699</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36981; 44167</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20192; 22310</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22628; 27680</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36981; 44167</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20192; 22310</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22628; 27680</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7715</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12898</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7715</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12898</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3985; 9633</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9329; 13797</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4533; 6161</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3985; 9633</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9329; 13797</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4533; 6161</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51465</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>63936</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40578</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51465</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63936</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40578</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47083; 53465</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59646; 65000</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36243; 42291</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47083; 53465</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59646; 65000</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36243; 42291</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>30738</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38863</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23675</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30738</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38863</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23675</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26232; 32901</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>36910; 38863</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19955; 24597</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26232; 32901</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>36910; 38863</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19955; 24597</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33376</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>51763</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29570</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>33376</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51763</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>29570</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>28255; 36220</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>47971; 52755</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27751; 29570</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28255; 36220</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>47971; 52755</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>27751; 29570</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>141973</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>141973</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>136371; 145714</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>136371; 145714</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
